--- a/IrregularVerbs/Resources/localization.xlsx
+++ b/IrregularVerbs/Resources/localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
   <si>
     <t>beat</t>
   </si>
@@ -541,6 +541,156 @@
   </si>
   <si>
     <t>учить что-либо</t>
+  </si>
+  <si>
+    <t>быць</t>
+  </si>
+  <si>
+    <t>біць</t>
+  </si>
+  <si>
+    <t>станавіцца</t>
+  </si>
+  <si>
+    <t>пачынаць/пачынацца</t>
+  </si>
+  <si>
+    <t>кусацца</t>
+  </si>
+  <si>
+    <t>дзьмуць</t>
+  </si>
+  <si>
+    <t>ламаць/ламацца</t>
+  </si>
+  <si>
+    <t>прыносіць</t>
+  </si>
+  <si>
+    <t>будаваць</t>
+  </si>
+  <si>
+    <t>паліць</t>
+  </si>
+  <si>
+    <t>купляць</t>
+  </si>
+  <si>
+    <t>лавіць</t>
+  </si>
+  <si>
+    <t>выбіраць</t>
+  </si>
+  <si>
+    <t>прыходзіць</t>
+  </si>
+  <si>
+    <t>каштаваць</t>
+  </si>
+  <si>
+    <t>рэзаць/кроіць</t>
+  </si>
+  <si>
+    <t>рабіць</t>
+  </si>
+  <si>
+    <t>маляваць</t>
+  </si>
+  <si>
+    <t>марыць/бачыць сон</t>
+  </si>
+  <si>
+    <t>піць</t>
+  </si>
+  <si>
+    <t>вадзіць/кіраваць</t>
+  </si>
+  <si>
+    <t>есці</t>
+  </si>
+  <si>
+    <t>падаць</t>
+  </si>
+  <si>
+    <t>адчуваць</t>
+  </si>
+  <si>
+    <t>біцца</t>
+  </si>
+  <si>
+    <t>знаходзіць</t>
+  </si>
+  <si>
+    <t>лятаць</t>
+  </si>
+  <si>
+    <t>забываць/забывацца</t>
+  </si>
+  <si>
+    <t>атрымліваць</t>
+  </si>
+  <si>
+    <t>даваць</t>
+  </si>
+  <si>
+    <t>хадзіць/ездзіць</t>
+  </si>
+  <si>
+    <t>расці</t>
+  </si>
+  <si>
+    <t>вешаць</t>
+  </si>
+  <si>
+    <t>мець</t>
+  </si>
+  <si>
+    <t>чуць</t>
+  </si>
+  <si>
+    <t>хаваць/хавацца</t>
+  </si>
+  <si>
+    <t>удараць</t>
+  </si>
+  <si>
+    <t>трымаць</t>
+  </si>
+  <si>
+    <t>прычыняць боль</t>
+  </si>
+  <si>
+    <t>захоўваць/трымаць</t>
+  </si>
+  <si>
+    <t>ведаць/знаць</t>
+  </si>
+  <si>
+    <t>вучыць што-небудзь</t>
+  </si>
+  <si>
+    <t>пакідаць/адыходзіць</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пазычаць </t>
+  </si>
+  <si>
+    <t>дазваляць</t>
+  </si>
+  <si>
+    <t>ляжаць</t>
+  </si>
+  <si>
+    <t>запальваць</t>
+  </si>
+  <si>
+    <t>траціць/губляць</t>
+  </si>
+  <si>
+    <t>значыць</t>
+  </si>
+  <si>
+    <t>сустракаць/сустракацца</t>
   </si>
 </sst>
 </file>
@@ -909,7 +1059,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +1067,7 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -946,7 +1096,9 @@
       <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
@@ -959,7 +1111,9 @@
       <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
@@ -972,7 +1126,9 @@
       <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
@@ -985,7 +1141,9 @@
       <c r="C5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
@@ -998,7 +1156,9 @@
       <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
@@ -1011,7 +1171,9 @@
       <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
@@ -1024,7 +1186,9 @@
       <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
@@ -1037,7 +1201,9 @@
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
@@ -1050,7 +1216,9 @@
       <c r="C10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
@@ -1063,7 +1231,9 @@
       <c r="C11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
@@ -1076,7 +1246,9 @@
       <c r="C12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
@@ -1089,7 +1261,9 @@
       <c r="C13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
@@ -1102,7 +1276,9 @@
       <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
@@ -1115,7 +1291,9 @@
       <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
@@ -1128,7 +1306,9 @@
       <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
@@ -1141,7 +1321,9 @@
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
@@ -1154,7 +1336,9 @@
       <c r="C18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
@@ -1167,7 +1351,9 @@
       <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
@@ -1180,7 +1366,9 @@
       <c r="C20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
@@ -1193,7 +1381,9 @@
       <c r="C21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
@@ -1206,7 +1396,9 @@
       <c r="C22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
@@ -1219,7 +1411,9 @@
       <c r="C23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
@@ -1232,7 +1426,9 @@
       <c r="C24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
@@ -1245,7 +1441,9 @@
       <c r="C25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
@@ -1258,7 +1456,9 @@
       <c r="C26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="str">
@@ -1271,7 +1471,9 @@
       <c r="C27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="str">
@@ -1284,7 +1486,9 @@
       <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="str">
@@ -1297,7 +1501,9 @@
       <c r="C29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="str">
@@ -1310,7 +1516,9 @@
       <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="str">
@@ -1323,7 +1531,9 @@
       <c r="C31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="str">
@@ -1336,7 +1546,9 @@
       <c r="C32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="str">
@@ -1349,7 +1561,9 @@
       <c r="C33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="str">
@@ -1362,7 +1576,9 @@
       <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="str">
@@ -1375,7 +1591,9 @@
       <c r="C35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="str">
@@ -1388,7 +1606,9 @@
       <c r="C36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="str">
@@ -1401,7 +1621,9 @@
       <c r="C37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="str">
@@ -1414,7 +1636,9 @@
       <c r="C38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="str">
@@ -1427,7 +1651,9 @@
       <c r="C39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="str">
@@ -1440,7 +1666,9 @@
       <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="str">
@@ -1453,7 +1681,9 @@
       <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="str">
@@ -1466,7 +1696,9 @@
       <c r="C42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="str">
@@ -1479,7 +1711,9 @@
       <c r="C43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="str">
@@ -1492,7 +1726,9 @@
       <c r="C44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="str">
@@ -1505,7 +1741,9 @@
       <c r="C45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="str">
@@ -1518,7 +1756,9 @@
       <c r="C46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="str">
@@ -1531,7 +1771,9 @@
       <c r="C47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
@@ -1544,7 +1786,9 @@
       <c r="C48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="str">
@@ -1557,7 +1801,9 @@
       <c r="C49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="str">
@@ -1570,7 +1816,9 @@
       <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="str">
@@ -1583,7 +1831,9 @@
       <c r="C51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="str">
@@ -1596,7 +1846,9 @@
       <c r="C52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="str">

--- a/IrregularVerbs/Resources/localization.xlsx
+++ b/IrregularVerbs/Resources/localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>beat</t>
   </si>
@@ -327,9 +327,6 @@
     <t>резать</t>
   </si>
   <si>
-    <t>делать</t>
-  </si>
-  <si>
     <t>рисовать</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>рэзаць/кроіць</t>
   </si>
   <si>
-    <t>рабіць</t>
-  </si>
-  <si>
     <t>маляваць</t>
   </si>
   <si>
@@ -691,6 +685,123 @@
   </si>
   <si>
     <t>сустракаць/сустракацца</t>
+  </si>
+  <si>
+    <t>делать/изготавливать</t>
+  </si>
+  <si>
+    <t>делать/заниматься</t>
+  </si>
+  <si>
+    <t>рабіць/займацца</t>
+  </si>
+  <si>
+    <t>рабіць/вырабляць</t>
+  </si>
+  <si>
+    <t>плаціць</t>
+  </si>
+  <si>
+    <t>класці</t>
+  </si>
+  <si>
+    <t>чытаць</t>
+  </si>
+  <si>
+    <t>ездзіць</t>
+  </si>
+  <si>
+    <t>званіць</t>
+  </si>
+  <si>
+    <t>падымацца/узвышацца</t>
+  </si>
+  <si>
+    <t>бегаць</t>
+  </si>
+  <si>
+    <t>казаць/сказаць</t>
+  </si>
+  <si>
+    <t>бачыць</t>
+  </si>
+  <si>
+    <t>прадаваць</t>
+  </si>
+  <si>
+    <t>пасылаць</t>
+  </si>
+  <si>
+    <t>свяціць</t>
+  </si>
+  <si>
+    <t>страляць</t>
+  </si>
+  <si>
+    <t>паказваць</t>
+  </si>
+  <si>
+    <t>закрываць/зачыняць</t>
+  </si>
+  <si>
+    <t>спяваць</t>
+  </si>
+  <si>
+    <t>сядзець</t>
+  </si>
+  <si>
+    <t>спаць</t>
+  </si>
+  <si>
+    <t>пахнуць/нюхаць</t>
+  </si>
+  <si>
+    <t>казаць/выступаць</t>
+  </si>
+  <si>
+    <t>траціць/расходаваць</t>
+  </si>
+  <si>
+    <t>стаяць</t>
+  </si>
+  <si>
+    <t>красці</t>
+  </si>
+  <si>
+    <t>плаваць</t>
+  </si>
+  <si>
+    <t>браць</t>
+  </si>
+  <si>
+    <t>навучаць</t>
+  </si>
+  <si>
+    <t>раздзіраць</t>
+  </si>
+  <si>
+    <t>казаць/апавядаць</t>
+  </si>
+  <si>
+    <t>думаць</t>
+  </si>
+  <si>
+    <t>кідаць</t>
+  </si>
+  <si>
+    <t>разумець</t>
+  </si>
+  <si>
+    <t>прачынацца/будзіць</t>
+  </si>
+  <si>
+    <t>насіць адзенне</t>
+  </si>
+  <si>
+    <t>перамагаць</t>
+  </si>
+  <si>
+    <t>пісаць</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1208,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,7 +1223,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,7 +1238,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,10 +1250,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1154,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,7 +1283,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,7 +1313,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,7 +1328,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1343,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1358,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,7 +1373,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,7 +1388,7 @@
         <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1403,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,7 +1418,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,7 +1433,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,10 +1445,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1364,10 +1475,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,10 +1490,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,10 +1505,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,10 +1535,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,10 +1550,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,10 +1565,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,10 +1580,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,10 +1595,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,10 +1610,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,10 +1625,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,10 +1640,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,10 +1655,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,10 +1670,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,10 +1685,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,10 +1700,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,10 +1715,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,10 +1730,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,10 +1745,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,10 +1760,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,10 +1775,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1679,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,10 +1805,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1709,10 +1820,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,10 +1850,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,10 +1865,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,10 +1880,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,10 +1895,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,10 +1910,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,10 +1925,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1829,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,10 +1955,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,9 +1970,11 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="str">
@@ -1872,9 +1985,11 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="str">
@@ -1885,9 +2000,11 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="str">
@@ -1898,9 +2015,11 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="str">
@@ -1911,9 +2030,11 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="str">
@@ -1924,9 +2045,11 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="str">
@@ -1937,9 +2060,11 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="str">
@@ -1950,9 +2075,11 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="str">
@@ -1963,9 +2090,11 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="str">
@@ -1976,9 +2105,11 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="str">
@@ -1989,9 +2120,11 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="str">
@@ -2002,9 +2135,11 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="str">
@@ -2015,9 +2150,11 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="str">
@@ -2028,9 +2165,11 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="str">
@@ -2041,9 +2180,11 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
@@ -2054,9 +2195,11 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
@@ -2067,9 +2210,11 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
@@ -2080,9 +2225,11 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="str">
@@ -2093,9 +2240,11 @@
         <v>86</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str">
@@ -2106,9 +2255,11 @@
         <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
@@ -2119,9 +2270,11 @@
         <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="str">
@@ -2132,9 +2285,11 @@
         <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="str">
@@ -2145,9 +2300,11 @@
         <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="str">
@@ -2158,9 +2315,11 @@
         <v>73</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
@@ -2171,9 +2330,11 @@
         <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
@@ -2184,9 +2345,11 @@
         <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
@@ -2197,9 +2360,11 @@
         <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
@@ -2210,9 +2375,11 @@
         <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
@@ -2223,9 +2390,11 @@
         <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
@@ -2236,9 +2405,11 @@
         <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
@@ -2249,9 +2420,11 @@
         <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
@@ -2262,9 +2435,11 @@
         <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
@@ -2275,9 +2450,11 @@
         <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
@@ -2288,9 +2465,11 @@
         <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
@@ -2301,9 +2480,11 @@
         <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D26">

--- a/IrregularVerbs/Resources/localization.xlsx
+++ b/IrregularVerbs/Resources/localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>beat</t>
   </si>
@@ -802,6 +802,42 @@
   </si>
   <si>
     <t>пісаць</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>ускласці</t>
+  </si>
+  <si>
+    <t>возложить</t>
+  </si>
+  <si>
+    <t>ставить/устанавливать</t>
+  </si>
+  <si>
+    <t>ставіць/устанаўліваць</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>шить</t>
+  </si>
+  <si>
+    <t>шыць</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>придерживаться</t>
+  </si>
+  <si>
+    <t>прытрымлівацца</t>
   </si>
 </sst>
 </file>
@@ -831,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -854,11 +890,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -866,6 +913,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1167,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1247,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A43" si="0">UPPER(B2)</f>
+        <f t="shared" ref="A2:A47" si="0">UPPER(B2)</f>
         <v>BE</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1812,677 +1861,737 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>LEARN</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>214</v>
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LAY</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="str">
-        <f t="shared" ref="A44:A87" si="1">UPPER(B44)</f>
-        <v>LEAVE</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>LEARN</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LEND</v>
+        <f t="shared" si="0"/>
+        <v>LEAVE</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LET</v>
+        <f t="shared" si="0"/>
+        <v>LEND</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LIE</v>
+        <f t="shared" si="0"/>
+        <v>LET</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LIGHT</v>
+        <f t="shared" ref="A45:A68" si="1">UPPER(B48)</f>
+        <v>LIE</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>LOSE</v>
+        <v>LIGHT</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MAKE</v>
+        <v>LOSE</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MEAN</v>
+        <v>MAKE</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MEET</v>
+        <v>MEAN</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PAY</v>
+        <v>MEET</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PUT</v>
+        <v>PAY</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>READ</v>
+        <v>PUT</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RIDE</v>
+        <v>READ</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RING</v>
+        <v>RIDE</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RISE</v>
+        <v>RING</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RUN</v>
+        <v>RISE</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SAY</v>
+        <v>RUN</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SEE</v>
+        <v>SAY</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SELL</v>
+        <v>SEE</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SEND</v>
+        <v>SELL</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHINE</v>
+        <v>SEND</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHOOT</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>239</v>
+        <v>SET</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHOW</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>240</v>
+        <v>SEW</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHUT</v>
+        <v>SHINE</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SING</v>
+        <v>SHOOT</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SIT</v>
+        <f>UPPER(B69)</f>
+        <v>SHOW</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SLEEP</v>
+        <f>UPPER(B70)</f>
+        <v>SHUT</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SMELL</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>172</v>
+      <c r="A71" s="6" t="str">
+        <f>UPPER(B71)</f>
+        <v>SING</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SPEAK</v>
+      <c r="A72" s="6" t="str">
+        <f>UPPER(B72)</f>
+        <v>SIT</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SPEND</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>70</v>
+        <f>UPPER(B73)</f>
+        <v>SLEEP</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>STAND</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
+      <c r="A74" s="5" t="str">
+        <f>UPPER(B74)</f>
+        <v>SMELL</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>STEAL</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>72</v>
+      <c r="A75" s="1" t="str">
+        <f>UPPER(B75)</f>
+        <v>SPEAK</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SWIM</v>
+        <f>UPPER(B76)</f>
+        <v>SPEND</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TAKE</v>
+        <f>UPPER(B77)</f>
+        <v>STAND</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TEACH</v>
+        <f t="shared" ref="A78:A81" si="2">UPPER(B78)</f>
+        <v>STEAL</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TEAR</v>
+        <f t="shared" si="2"/>
+        <v>STICK</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TELL</v>
+        <f t="shared" si="2"/>
+        <v>SWIM</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>THINK</v>
+        <f t="shared" si="2"/>
+        <v>TAKE</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>THROW</v>
+        <f>UPPER(B82)</f>
+        <v>TEACH</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>UNDERSTAND</v>
+        <f>UPPER(B83)</f>
+        <v>TEAR</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WAKE</v>
+        <f>UPPER(B84)</f>
+        <v>TELL</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WEAR</v>
+        <f>UPPER(B85)</f>
+        <v>THINK</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
+        <f>UPPER(B86)</f>
+        <v>THROW</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>UPPER(B87)</f>
+        <v>UNDERSTAND</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="str">
+        <f>UPPER(B88)</f>
+        <v>WAKE</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="str">
+        <f>UPPER(B89)</f>
+        <v>WEAR</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="str">
+        <f>UPPER(B90)</f>
+        <v>WIN</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="str">
+        <f>UPPER(B91)</f>
         <v>WRITE</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>261</v>
       </c>
     </row>

--- a/IrregularVerbs/Resources/localization.xlsx
+++ b/IrregularVerbs/Resources/localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>beat</t>
   </si>
@@ -838,6 +838,15 @@
   </si>
   <si>
     <t>прытрымлівацца</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>трясти</t>
+  </si>
+  <si>
+    <t>трэсці</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,7 +1946,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
-        <f t="shared" ref="A45:A68" si="1">UPPER(B48)</f>
+        <f t="shared" ref="A48:A67" si="1">UPPER(B48)</f>
         <v>LIE</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2223,375 +2232,390 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHINE</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>238</v>
+        <v>SHAKE</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SHOOT</v>
+        <f>UPPER(B68)</f>
+        <v>SHINE</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
         <f>UPPER(B69)</f>
-        <v>SHOW</v>
+        <v>SHOOT</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
-        <f>UPPER(B70)</f>
-        <v>SHUT</v>
+        <f t="shared" ref="A70:A78" si="2">UPPER(B70)</f>
+        <v>SHOW</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="str">
-        <f>UPPER(B71)</f>
-        <v>SING</v>
+        <f t="shared" si="2"/>
+        <v>SHUT</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="str">
-        <f>UPPER(B72)</f>
-        <v>SIT</v>
+        <f t="shared" si="2"/>
+        <v>SING</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
-        <f>UPPER(B73)</f>
+        <f t="shared" si="2"/>
+        <v>SIT</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>SLEEP</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="str">
-        <f>UPPER(B74)</f>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SMELL</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="str">
-        <f>UPPER(B75)</f>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>SPEAK</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="str">
-        <f>UPPER(B76)</f>
-        <v>SPEND</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
-        <f>UPPER(B77)</f>
-        <v>STAND</v>
+        <f t="shared" si="2"/>
+        <v>SPEND</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
-        <f t="shared" ref="A78:A81" si="2">UPPER(B78)</f>
-        <v>STEAL</v>
+        <f t="shared" si="2"/>
+        <v>STAND</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>STICK</v>
+        <f t="shared" ref="A79:A82" si="3">UPPER(B79)</f>
+        <v>STEAL</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>273</v>
+        <v>72</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SWIM</v>
+        <f t="shared" si="3"/>
+        <v>STICK</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>250</v>
+        <v>271</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>TAKE</v>
+        <f t="shared" si="3"/>
+        <v>SWIM</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
-        <f>UPPER(B82)</f>
-        <v>TEACH</v>
+        <f t="shared" si="3"/>
+        <v>TAKE</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f>UPPER(B83)</f>
-        <v>TEAR</v>
+        <f t="shared" ref="A83:A92" si="4">UPPER(B83)</f>
+        <v>TEACH</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
-        <f>UPPER(B84)</f>
-        <v>TELL</v>
+        <f t="shared" si="4"/>
+        <v>TEAR</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
-        <f>UPPER(B85)</f>
-        <v>THINK</v>
+        <f t="shared" si="4"/>
+        <v>TELL</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
-        <f>UPPER(B86)</f>
-        <v>THROW</v>
+        <f t="shared" si="4"/>
+        <v>THINK</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
-        <f>UPPER(B87)</f>
-        <v>UNDERSTAND</v>
+        <f t="shared" si="4"/>
+        <v>THROW</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="str">
-        <f>UPPER(B88)</f>
-        <v>WAKE</v>
+        <f t="shared" si="4"/>
+        <v>UNDERSTAND</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="str">
-        <f>UPPER(B89)</f>
-        <v>WEAR</v>
+        <f t="shared" si="4"/>
+        <v>WAKE</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="str">
-        <f>UPPER(B90)</f>
-        <v>WIN</v>
+        <f t="shared" si="4"/>
+        <v>WEAR</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="str">
-        <f>UPPER(B91)</f>
+        <f t="shared" si="4"/>
+        <v>WIN</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>WRITE</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>261</v>
       </c>
     </row>
